--- a/Excel Calculations W02_Challenge02.xlsx
+++ b/Excel Calculations W02_Challenge02.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA ANALYSIS AND DATA SCIENCE PROJECTS\Excel Skills for Business Essentials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{261520D8-FE8F-4C51-B51E-FA603E5FD890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE51FB4C-96B2-45BD-91F3-5A54A2B562B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Title page" sheetId="2" r:id="rId1"/>
@@ -4604,7 +4604,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="I6" sqref="I6:O6"/>
     </sheetView>
   </sheetViews>
@@ -4899,7 +4899,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
@@ -4939,7 +4941,10 @@
       <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="7"/>
+      <c r="B7" s="7">
+        <f>B5+B6</f>
+        <v>1300</v>
+      </c>
     </row>
     <row r="8" spans="1:2">
       <c r="B8" s="2"/>
@@ -4970,7 +4975,10 @@
       <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="7"/>
+      <c r="B12" s="7">
+        <f>B10+B11</f>
+        <v>5650</v>
+      </c>
     </row>
     <row r="13" spans="1:2">
       <c r="B13" s="2"/>
@@ -5001,7 +5009,10 @@
       <c r="A17" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="7"/>
+      <c r="B17" s="7">
+        <f>B15+B16</f>
+        <v>1400</v>
+      </c>
     </row>
     <row r="18" spans="1:2">
       <c r="B18" s="2"/>
@@ -5010,19 +5021,28 @@
       <c r="A19" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="7"/>
+      <c r="B19" s="7">
+        <f>B7+B12+B17</f>
+        <v>8350</v>
+      </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="2"/>
+      <c r="B20" s="2">
+        <f>B19*10%</f>
+        <v>835</v>
+      </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="7"/>
+      <c r="B21" s="7">
+        <f>B19-B20</f>
+        <v>7515</v>
+      </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
